--- a/src/P03_run_diff_sigma/T05_ml_auto_optuna/S01_hyperparam_search.xlsx
+++ b/src/P03_run_diff_sigma/T05_ml_auto_optuna/S01_hyperparam_search.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,41 @@
           <t>best_value</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>total_trial</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mse_mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>mse_std</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mape_mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>mape_std</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>r2_mean</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>r2_std</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,11 +527,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 8, 'max_depth': 4}</t>
+          <t>{'n_estimators': 9, 'max_depth': 26}</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.8475744664404251</v>
+        <v>0.9053660183334357</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9053660183334357</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04230314299600666</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.975524475615564</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2233111302421328</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.08515991705651045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.06177255272554276</v>
       </c>
     </row>
     <row r="3">
@@ -521,11 +577,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 8, 'max_depth': 4}</t>
+          <t>{'n_estimators': 9, 'max_depth': 26}</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.9008409876076767</v>
+        <v>0.9899885637630116</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9899885637630116</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05602929122604732</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.607077537743745</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6500558253926444</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.002123182031364718</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.08352434455219389</v>
       </c>
     </row>
     <row r="4">
@@ -550,11 +627,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 8, 'max_depth': 4}</t>
+          <t>{'n_estimators': 9, 'max_depth': 26}</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9096093488560695</v>
+        <v>0.9363070804440993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9363070804440993</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.09185662347086684</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.159114927491725</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2442387837164081</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.03409065060230374</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03203928458518857</v>
       </c>
     </row>
     <row r="5">
@@ -579,11 +677,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 8, 'max_depth': 4}</t>
+          <t>{'n_estimators': 9, 'max_depth': 26}</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.906531472713802</v>
+        <v>0.9326032307779785</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9326032307779785</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.06003758951125531</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.852974469551433</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.812838939911226</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.05520481427080581</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0195611582345976</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +731,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.8436661708183285</v>
+        <v>0.8897046635396371</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8897046635396371</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.04298164101014518</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17.72613171983362</v>
+      </c>
+      <c r="L6" t="n">
+        <v>16.23815589835212</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1003097216133381</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01231420255730563</v>
       </c>
     </row>
     <row r="7">
@@ -643,6 +783,27 @@
       <c r="G7" t="n">
         <v>0.9921523933465325</v>
       </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9921523933465325</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03728276120485228</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.90099026179132</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2616057938944857</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.002230565727119461</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0686646183186775</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -672,6 +833,27 @@
       <c r="G8" t="n">
         <v>1.008578226348242</v>
       </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.008578226348242</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0973383136789029</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.304275665358624</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6558214272008736</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.01517578036421371</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0138786089939101</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -701,6 +883,27 @@
       <c r="G9" t="n">
         <v>0.9801026825855227</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9801026825855227</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.04931953249249544</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.878307315087861</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.130603414111281</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.002862427052582795</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.07973048916210411</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -730,6 +933,27 @@
       <c r="G10" t="n">
         <v>1.025638345116444</v>
       </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.025638345116444</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.05127098224711345</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.277169122081153</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3053390187503923</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.03185801915334443</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01791833764173246</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -758,6 +982,27 @@
       </c>
       <c r="G11" t="n">
         <v>0.9567428754898405</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9567428754898405</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.05506444558961265</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13.36068161247555</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13.49075559655626</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.03518324729052221</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02396857705899142</v>
       </c>
     </row>
   </sheetData>

--- a/src/P03_run_diff_sigma/T05_ml_auto_optuna/S01_hyperparam_search.xlsx
+++ b/src/P03_run_diff_sigma/T05_ml_auto_optuna/S01_hyperparam_search.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -527,482 +527,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 9, 'max_depth': 26}</t>
+          <t>{'n_estimators': 179, 'max_depth': 54, 'min_samples_split': 49, 'min_samples_leaf': 35, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.9053660183334357</v>
+        <v>0.8050724859600872</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9053660183334357</v>
+        <v>0.8050724859600872</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04230314299600666</v>
+        <v>0.02295158531815092</v>
       </c>
       <c r="K2" t="n">
-        <v>1.975524475615564</v>
+        <v>1.432384094430163</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2233111302421328</v>
+        <v>0.06026293875623329</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08515991705651045</v>
+        <v>0.1887014731760341</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06177255272554276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>study_RandomForest_RS-2_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 9, 'max_depth': 26}</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9899885637630116</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9899885637630116</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.05602929122604732</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.607077537743745</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6500558253926444</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.002123182031364718</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.08352434455219389</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>study_RandomForest_RS-3_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 9, 'max_depth': 26}</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9363070804440993</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9363070804440993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.09185662347086684</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.159114927491725</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.2442387837164081</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.03409065060230374</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.03203928458518857</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>study_RandomForest_RS-4_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 9, 'max_depth': 26}</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9326032307779785</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9326032307779785</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.06003758951125531</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.852974469551433</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.812838939911226</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.05520481427080581</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0195611582345976</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>study_RandomForest_RS-5_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 9, 'max_depth': 26}</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8897046635396371</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8897046635396371</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.04298164101014518</v>
-      </c>
-      <c r="K6" t="n">
-        <v>17.72613171983362</v>
-      </c>
-      <c r="L6" t="n">
-        <v>16.23815589835212</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.1003097216133381</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.01231420255730563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SVR</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>study_SVR_RS-1_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>{'C': 0.0009915644566638397, 'gamma': 4.518560951024111}</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9921523933465325</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9921523933465325</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.03728276120485228</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.90099026179132</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2616057938944857</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.002230565727119461</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0686646183186775</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SVR</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>study_SVR_RS-2_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>{'C': 0.0009915644566638397, 'gamma': 4.518560951024111}</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.008578226348242</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.008578226348242</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0973383136789029</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.304275665358624</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.6558214272008736</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-0.01517578036421371</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0138786089939101</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SVR</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>study_SVR_RS-3_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>{'C': 0.0009915644566638397, 'gamma': 4.518560951024111}</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9801026825855227</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9801026825855227</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.04931953249249544</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.878307315087861</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.130603414111281</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-0.002862427052582795</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.07973048916210411</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SVR</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>study_SVR_RS-4_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>{'C': 0.0009915644566638397, 'gamma': 4.518560951024111}</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.025638345116444</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.025638345116444</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.05127098224711345</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.277169122081153</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3053390187503923</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.03185801915334443</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.01791833764173246</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SVR</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>study_SVR_RS-5_TS-0_3</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>{'C': 0.0009915644566638397, 'gamma': 4.518560951024111}</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9567428754898405</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9567428754898405</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.05506444558961265</v>
-      </c>
-      <c r="K11" t="n">
-        <v>13.36068161247555</v>
-      </c>
-      <c r="L11" t="n">
-        <v>13.49075559655626</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.03518324729052221</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.02396857705899142</v>
+        <v>0.00339957003264271</v>
       </c>
     </row>
   </sheetData>
